--- a/GBDS FEBRUARY FILES 2026/SCRR CALCULATOR - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SCRR CALCULATOR - FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F9910-5D3C-4953-858C-B324AA9F0993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780E66A-00C4-4A11-BF4B-0A63E893251A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(February 2026)" sheetId="814" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3777" uniqueCount="174">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -706,6 +706,15 @@
   </si>
   <si>
     <t>130458</t>
+  </si>
+  <si>
+    <t>BANK ACCOUNT</t>
+  </si>
+  <si>
+    <t>2130016745</t>
+  </si>
+  <si>
+    <t>2778</t>
   </si>
 </sst>
 </file>
@@ -19651,7 +19660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B45898-602E-4C6C-9CB2-9AAE25C4E44C}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -28200,7 +28209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E3F451-A91A-407B-B03F-AE32BC427426}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -28322,10 +28331,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="84">
+        <v>159</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>120999</v>
       </c>
       <c r="F6" s="208" t="s">
         <v>16</v>
@@ -28358,10 +28369,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="84">
+        <v>5</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3905</v>
       </c>
       <c r="F7" s="209"/>
       <c r="G7" s="213"/>
@@ -28382,16 +28395,18 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="84">
+        <v>15</v>
+      </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16395</v>
       </c>
       <c r="F8" s="216" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="217" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="H8" s="218"/>
       <c r="I8" s="218"/>
@@ -28410,10 +28425,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="84">
+        <v>22</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16126</v>
       </c>
       <c r="F9" s="209"/>
       <c r="G9" s="220"/>
@@ -28434,16 +28451,18 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="84">
+        <v>4</v>
+      </c>
       <c r="D10" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4128</v>
       </c>
       <c r="F10" s="208" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="223" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="H10" s="224"/>
       <c r="I10" s="224"/>
@@ -28462,10 +28481,12 @@
       <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="84">
+        <v>2</v>
+      </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="F11" s="209"/>
       <c r="G11" s="220"/>
@@ -28494,10 +28515,13 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="84"/>
+      <c r="C12" s="84">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2976</v>
       </c>
       <c r="F12" s="226" t="s">
         <v>33</v>
@@ -28528,10 +28552,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="84">
+        <v>1</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="F13" s="229" t="s">
         <v>36</v>
@@ -28539,7 +28565,7 @@
       <c r="G13" s="193"/>
       <c r="H13" s="184">
         <f>D29</f>
-        <v>0</v>
+        <v>173376</v>
       </c>
       <c r="I13" s="185"/>
       <c r="J13" s="186"/>
@@ -28562,10 +28588,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="84">
+        <v>14</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="F14" s="187" t="s">
         <v>39</v>
@@ -28573,7 +28601,7 @@
       <c r="G14" s="188"/>
       <c r="H14" s="189">
         <f>D54</f>
-        <v>0</v>
+        <v>23477.25</v>
       </c>
       <c r="I14" s="190"/>
       <c r="J14" s="191"/>
@@ -28611,7 +28639,7 @@
       <c r="G15" s="193"/>
       <c r="H15" s="194">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>149898.75</v>
       </c>
       <c r="I15" s="195"/>
       <c r="J15" s="196"/>
@@ -28675,10 +28703,12 @@
       <c r="B17" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="84">
+        <v>3</v>
+      </c>
       <c r="D17" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4746</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="66" t="s">
@@ -28753,9 +28783,11 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
+      <c r="H19" s="154">
+        <v>50</v>
+      </c>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
       <c r="L19" s="6">
         <v>1102</v>
       </c>
@@ -28800,10 +28832,12 @@
       <c r="B21" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="84">
+        <v>2</v>
+      </c>
       <c r="D21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>99</v>
@@ -29067,7 +29101,7 @@
       <c r="C29" s="157"/>
       <c r="D29" s="161">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>173376</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>55</v>
@@ -29075,7 +29109,7 @@
       <c r="G29" s="163"/>
       <c r="H29" s="123">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27+H28</f>
-        <v>0</v>
+        <v>149848.75</v>
       </c>
       <c r="I29" s="124"/>
       <c r="J29" s="125"/>
@@ -29206,18 +29240,22 @@
       <c r="B34" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="51">
+        <v>2</v>
+      </c>
       <c r="D34" s="30">
         <f>C34*120</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="40">
+        <v>120</v>
+      </c>
       <c r="H34" s="145">
         <f t="shared" ref="H34:H39" si="2">F34*G34</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="I34" s="146"/>
       <c r="J34" s="147"/>
@@ -29248,10 +29286,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>30</v>
+      </c>
       <c r="H35" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I35" s="146"/>
       <c r="J35" s="147"/>
@@ -29308,18 +29348,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>165</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>18315</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>7</v>
+      </c>
       <c r="H37" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I37" s="146"/>
       <c r="J37" s="147"/>
@@ -29342,18 +29386,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>25</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>1</v>
+      </c>
       <c r="H38" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I38" s="146"/>
       <c r="J38" s="147"/>
@@ -29376,18 +29424,22 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>1</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
       </c>
-      <c r="G39" s="37"/>
+      <c r="G39" s="37">
+        <v>3</v>
+      </c>
       <c r="H39" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I39" s="146"/>
       <c r="J39" s="147"/>
@@ -29410,10 +29462,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>9</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -29473,15 +29527,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>15</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>33.75</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="145"/>
+      <c r="G42" s="145">
+        <v>13</v>
+      </c>
       <c r="H42" s="146"/>
       <c r="I42" s="146"/>
       <c r="J42" s="147"/>
@@ -29532,14 +29590,20 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>11</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="37"/>
+        <v>1320</v>
+      </c>
+      <c r="F44" s="97" t="s">
+        <v>171</v>
+      </c>
       <c r="G44" s="85"/>
-      <c r="H44" s="140"/>
+      <c r="H44" s="140">
+        <v>14000</v>
+      </c>
       <c r="I44" s="140"/>
       <c r="J44" s="140"/>
       <c r="K44" s="21"/>
@@ -29562,10 +29626,12 @@
       <c r="B45" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="33">
+        <v>4</v>
+      </c>
       <c r="D45" s="12">
         <f>C45*84</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="62"/>
@@ -29582,10 +29648,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="81">
+        <v>1</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="62"/>
@@ -29619,10 +29687,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>1</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -29647,17 +29717,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>1</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F49" s="121" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="123">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>149823</v>
       </c>
       <c r="H49" s="124"/>
       <c r="I49" s="124"/>
@@ -29681,10 +29753,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>5</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="126"/>
@@ -29710,7 +29784,7 @@
       </c>
       <c r="G51" s="230">
         <f>G49-H29</f>
-        <v>0</v>
+        <v>-25.75</v>
       </c>
       <c r="H51" s="231"/>
       <c r="I51" s="231"/>
@@ -29781,7 +29855,7 @@
       <c r="C54" s="103"/>
       <c r="D54" s="107">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>23477.25</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -30051,10 +30125,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>333</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>253413</v>
       </c>
       <c r="F6" s="208" t="s">
         <v>16</v>
@@ -30087,10 +30163,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>11</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8591</v>
       </c>
       <c r="F7" s="209"/>
       <c r="G7" s="213"/>
@@ -30139,10 +30217,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2199</v>
       </c>
       <c r="F9" s="209"/>
       <c r="G9" s="220"/>
@@ -30172,7 +30252,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="223" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="H10" s="224"/>
       <c r="I10" s="224"/>
@@ -30257,10 +30337,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>11</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3377</v>
       </c>
       <c r="F13" s="229" t="s">
         <v>36</v>
@@ -30268,7 +30350,7 @@
       <c r="G13" s="193"/>
       <c r="H13" s="184">
         <f>D29</f>
-        <v>0</v>
+        <v>267745</v>
       </c>
       <c r="I13" s="185"/>
       <c r="J13" s="186"/>
@@ -30291,10 +30373,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>15</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F14" s="187" t="s">
         <v>39</v>
@@ -30302,7 +30386,7 @@
       <c r="G14" s="188"/>
       <c r="H14" s="189">
         <f>D54</f>
-        <v>0</v>
+        <v>57427.5</v>
       </c>
       <c r="I14" s="190"/>
       <c r="J14" s="191"/>
@@ -30340,7 +30424,7 @@
       <c r="G15" s="193"/>
       <c r="H15" s="194">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>210317.5</v>
       </c>
       <c r="I15" s="195"/>
       <c r="J15" s="196"/>
@@ -30378,7 +30462,10 @@
       <c r="G16" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="154"/>
+      <c r="H16" s="154">
+        <f>241*6</f>
+        <v>1446</v>
+      </c>
       <c r="I16" s="154"/>
       <c r="J16" s="154"/>
       <c r="L16" s="6">
@@ -30799,7 +30886,7 @@
       <c r="C29" s="157"/>
       <c r="D29" s="161">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>267745</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>55</v>
@@ -30807,7 +30894,7 @@
       <c r="G29" s="163"/>
       <c r="H29" s="123">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>208871.5</v>
       </c>
       <c r="I29" s="124"/>
       <c r="J29" s="125"/>
@@ -30946,10 +31033,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="74"/>
+      <c r="G34" s="74">
+        <v>41</v>
+      </c>
       <c r="H34" s="145">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="I34" s="146"/>
       <c r="J34" s="147"/>
@@ -30980,10 +31069,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>41</v>
+      </c>
       <c r="H35" s="145">
         <f t="shared" ref="H35:H39" si="2">F35*G35</f>
-        <v>0</v>
+        <v>20500</v>
       </c>
       <c r="I35" s="146"/>
       <c r="J35" s="147"/>
@@ -31012,10 +31103,12 @@
       <c r="F36" s="12">
         <v>200</v>
       </c>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37">
+        <v>3</v>
+      </c>
       <c r="H36" s="145">
         <f>F36*G36</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I36" s="146"/>
       <c r="J36" s="147"/>
@@ -31040,18 +31133,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>458</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>50838</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>75</v>
+      </c>
       <c r="H37" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I37" s="146"/>
       <c r="J37" s="147"/>
@@ -31074,18 +31171,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>25</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>9</v>
+      </c>
       <c r="H38" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="I38" s="146"/>
       <c r="J38" s="147"/>
@@ -31108,10 +31209,12 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>8</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
@@ -31142,10 +31245,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>34</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>3774</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -31205,15 +31310,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>2</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="145"/>
+      <c r="G42" s="145">
+        <v>30</v>
+      </c>
       <c r="H42" s="146"/>
       <c r="I42" s="146"/>
       <c r="J42" s="147"/>
@@ -31269,9 +31378,15 @@
         <f>C44*120</f>
         <v>0</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="140"/>
+      <c r="F44" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="H44" s="140">
+        <v>138760</v>
+      </c>
       <c r="I44" s="140"/>
       <c r="J44" s="140"/>
       <c r="K44" s="21"/>
@@ -31351,10 +31466,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>3</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -31379,17 +31496,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>10</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="F49" s="121" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="123">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>208840</v>
       </c>
       <c r="H49" s="124"/>
       <c r="I49" s="124"/>
@@ -31413,10 +31532,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>14</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="126"/>
@@ -31438,15 +31559,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="31"/>
       <c r="F51" s="129" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51" s="131">
+        <v>155</v>
+      </c>
+      <c r="G51" s="230">
         <f>G49-H29</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
+        <v>-31.5</v>
+      </c>
+      <c r="H51" s="231"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="232"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -31468,10 +31589,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="130"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="136"/>
+      <c r="G52" s="233"/>
+      <c r="H52" s="234"/>
+      <c r="I52" s="234"/>
+      <c r="J52" s="235"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -31513,7 +31634,7 @@
       <c r="C54" s="103"/>
       <c r="D54" s="107">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>57427.5</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -31783,10 +31904,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>358</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>272438</v>
       </c>
       <c r="F6" s="208" t="s">
         <v>16</v>
@@ -31819,10 +31942,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>10</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7810</v>
       </c>
       <c r="F7" s="209"/>
       <c r="G7" s="213"/>
@@ -31871,10 +31996,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>16</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11728</v>
       </c>
       <c r="F9" s="209"/>
       <c r="G9" s="220"/>
@@ -31989,10 +32116,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>3</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="F13" s="229" t="s">
         <v>36</v>
@@ -32000,7 +32129,7 @@
       <c r="G13" s="193"/>
       <c r="H13" s="184">
         <f>D29</f>
-        <v>0</v>
+        <v>294192</v>
       </c>
       <c r="I13" s="185"/>
       <c r="J13" s="186"/>
@@ -32023,10 +32152,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>5</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F14" s="187" t="s">
         <v>39</v>
@@ -32034,7 +32165,7 @@
       <c r="G14" s="188"/>
       <c r="H14" s="189">
         <f>D54</f>
-        <v>0</v>
+        <v>44824.5</v>
       </c>
       <c r="I14" s="190"/>
       <c r="J14" s="191"/>
@@ -32061,10 +32192,12 @@
       <c r="B15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
       <c r="D15" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="F15" s="192" t="s">
         <v>40</v>
@@ -32072,7 +32205,7 @@
       <c r="G15" s="193"/>
       <c r="H15" s="194">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>249367.5</v>
       </c>
       <c r="I15" s="195"/>
       <c r="J15" s="196"/>
@@ -32110,7 +32243,10 @@
       <c r="G16" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="154"/>
+      <c r="H16" s="154">
+        <f>50*6+184*6</f>
+        <v>1404</v>
+      </c>
       <c r="I16" s="154"/>
       <c r="J16" s="154"/>
       <c r="L16" s="6">
@@ -32529,7 +32665,7 @@
       <c r="C29" s="157"/>
       <c r="D29" s="161">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>294192</v>
       </c>
       <c r="F29" s="101" t="s">
         <v>55</v>
@@ -32537,7 +32673,7 @@
       <c r="G29" s="163"/>
       <c r="H29" s="123">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>247963.5</v>
       </c>
       <c r="I29" s="124"/>
       <c r="J29" s="125"/>
@@ -32676,10 +32812,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="74"/>
+      <c r="G34" s="74">
+        <v>84</v>
+      </c>
       <c r="H34" s="145">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>84000</v>
       </c>
       <c r="I34" s="146"/>
       <c r="J34" s="147"/>
@@ -32710,10 +32848,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>78</v>
+      </c>
       <c r="H35" s="145">
         <f>F35*G35</f>
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="I35" s="146"/>
       <c r="J35" s="147"/>
@@ -32770,18 +32910,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>358</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>39738</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>19</v>
+      </c>
       <c r="H37" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="I37" s="146"/>
       <c r="J37" s="147"/>
@@ -32804,18 +32948,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>22</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>21</v>
+      </c>
       <c r="H38" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="I38" s="146"/>
       <c r="J38" s="147"/>
@@ -32838,18 +32986,22 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>5</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
       </c>
-      <c r="G39" s="37"/>
+      <c r="G39" s="37">
+        <v>1</v>
+      </c>
       <c r="H39" s="145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I39" s="146"/>
       <c r="J39" s="147"/>
@@ -32872,10 +33024,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>24</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>2664</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -32935,15 +33089,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>4</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="145"/>
+      <c r="G42" s="145">
+        <v>56</v>
+      </c>
       <c r="H42" s="146"/>
       <c r="I42" s="146"/>
       <c r="J42" s="147"/>
@@ -32999,9 +33157,15 @@
         <f>C44*120</f>
         <v>0</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="140"/>
+      <c r="F44" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="H44" s="140">
+        <v>121864</v>
+      </c>
       <c r="I44" s="140"/>
       <c r="J44" s="140"/>
       <c r="K44" s="21"/>
@@ -33044,10 +33208,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="81">
+        <v>8</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="62"/>
@@ -33081,10 +33247,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>3</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -33109,17 +33277,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>7</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="F49" s="121" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="123">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>247890</v>
       </c>
       <c r="H49" s="124"/>
       <c r="I49" s="124"/>
@@ -33143,10 +33313,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>2</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="126"/>
@@ -33168,15 +33340,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="31"/>
       <c r="F51" s="129" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51" s="131">
+        <v>128</v>
+      </c>
+      <c r="G51" s="230">
         <f>G49-H29</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
+        <v>-73.5</v>
+      </c>
+      <c r="H51" s="231"/>
+      <c r="I51" s="231"/>
+      <c r="J51" s="232"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -33198,10 +33370,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="130"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="135"/>
-      <c r="I52" s="135"/>
-      <c r="J52" s="136"/>
+      <c r="G52" s="233"/>
+      <c r="H52" s="234"/>
+      <c r="I52" s="234"/>
+      <c r="J52" s="235"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -33243,7 +33415,7 @@
       <c r="C54" s="103"/>
       <c r="D54" s="107">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>44824.5</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>

--- a/GBDS FEBRUARY FILES 2026/SCRR CALCULATOR - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SCRR CALCULATOR - FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215F8B6-A1D4-4C82-A125-87BCEF8332B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEAF29C-7ED3-4151-BC83-5A46543CC353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="23" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="23" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(February 2026)" sheetId="814" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="182">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -740,6 +740,21 @@
   </si>
   <si>
     <t>PODIOTAN, AIR JOHN</t>
+  </si>
+  <si>
+    <t>MGYZ</t>
+  </si>
+  <si>
+    <t>2120012846</t>
+  </si>
+  <si>
+    <t>147483</t>
+  </si>
+  <si>
+    <t>37670</t>
+  </si>
+  <si>
+    <t>5089363</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2255,6 +2270,9 @@
     </xf>
     <xf numFmtId="44" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -35668,7 +35686,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+      <selection activeCell="G8" sqref="G8:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37462,7 +37480,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+      <selection activeCell="G8" sqref="G8:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39227,8 +39245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47714860-2F33-4887-8EF1-129C655CA8B5}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44423,7 +44441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B12F3F-6634-4A65-810F-9DA276D44C44}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -44545,10 +44563,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="84">
+        <v>229</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>174269</v>
       </c>
       <c r="F6" s="214" t="s">
         <v>16</v>
@@ -44581,10 +44601,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="84">
+        <v>4</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="F7" s="215"/>
       <c r="G7" s="219"/>
@@ -44614,7 +44636,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="223" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="H8" s="224"/>
       <c r="I8" s="224"/>
@@ -44633,10 +44655,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="84">
+        <v>25</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18325</v>
       </c>
       <c r="F9" s="215"/>
       <c r="G9" s="226"/>
@@ -44666,7 +44690,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="229" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="H10" s="230"/>
       <c r="I10" s="230"/>
@@ -44751,10 +44775,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="84">
+        <v>2</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="F13" s="235" t="s">
         <v>36</v>
@@ -44762,7 +44788,7 @@
       <c r="G13" s="199"/>
       <c r="H13" s="190">
         <f>D29</f>
-        <v>0</v>
+        <v>197103</v>
       </c>
       <c r="I13" s="191"/>
       <c r="J13" s="192"/>
@@ -44785,10 +44811,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="84">
+        <v>11</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F14" s="193" t="s">
         <v>39</v>
@@ -44796,7 +44824,7 @@
       <c r="G14" s="194"/>
       <c r="H14" s="195">
         <f>D54</f>
-        <v>0</v>
+        <v>29223</v>
       </c>
       <c r="I14" s="196"/>
       <c r="J14" s="197"/>
@@ -44834,7 +44862,7 @@
       <c r="G15" s="199"/>
       <c r="H15" s="200">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>167880</v>
       </c>
       <c r="I15" s="201"/>
       <c r="J15" s="202"/>
@@ -44976,9 +45004,11 @@
       <c r="G19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
+      <c r="H19" s="160">
+        <v>214.28</v>
+      </c>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
       <c r="L19" s="6">
         <v>1102</v>
       </c>
@@ -45023,10 +45053,12 @@
       <c r="B21" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="84">
+        <v>1</v>
+      </c>
       <c r="D21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>99</v>
@@ -45290,7 +45322,7 @@
       <c r="C29" s="163"/>
       <c r="D29" s="167">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>197103</v>
       </c>
       <c r="F29" s="107" t="s">
         <v>55</v>
@@ -45298,7 +45330,7 @@
       <c r="G29" s="169"/>
       <c r="H29" s="129">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27+H28</f>
-        <v>0</v>
+        <v>167665.72</v>
       </c>
       <c r="I29" s="130"/>
       <c r="J29" s="131"/>
@@ -45437,10 +45469,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="40">
+        <v>83</v>
+      </c>
       <c r="H34" s="151">
         <f t="shared" ref="H34:H39" si="2">F34*G34</f>
-        <v>0</v>
+        <v>83000</v>
       </c>
       <c r="I34" s="152"/>
       <c r="J34" s="153"/>
@@ -45471,10 +45505,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>23</v>
+      </c>
       <c r="H35" s="151">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="I35" s="152"/>
       <c r="J35" s="153"/>
@@ -45531,18 +45567,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>255</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>28305</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>27</v>
+      </c>
       <c r="H37" s="151">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="I37" s="152"/>
       <c r="J37" s="153"/>
@@ -45565,18 +45605,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>2</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>6</v>
+      </c>
       <c r="H38" s="151">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I38" s="152"/>
       <c r="J38" s="153"/>
@@ -45599,10 +45643,12 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>4</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
@@ -45633,10 +45679,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>2</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -45664,10 +45712,12 @@
       <c r="B41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
       <c r="D41" s="12">
         <f>C41*84</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="F41" s="12">
         <v>5</v>
@@ -45704,7 +45754,9 @@
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="151"/>
+      <c r="G42" s="151">
+        <v>76</v>
+      </c>
       <c r="H42" s="152"/>
       <c r="I42" s="152"/>
       <c r="J42" s="153"/>
@@ -45760,9 +45812,16 @@
         <f>C44*120</f>
         <v>0</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="146"/>
+      <c r="F44" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="146">
+        <f>69966</f>
+        <v>69966</v>
+      </c>
       <c r="I44" s="146"/>
       <c r="J44" s="146"/>
       <c r="K44" s="21"/>
@@ -45805,10 +45864,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="81">
+        <v>35</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="62"/>
@@ -45842,10 +45903,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>4</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -45870,17 +45933,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>1</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F49" s="127" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="129">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>167542</v>
       </c>
       <c r="H49" s="130"/>
       <c r="I49" s="130"/>
@@ -45904,10 +45969,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>13</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="F50" s="128"/>
       <c r="G50" s="132"/>
@@ -45933,7 +46000,7 @@
       </c>
       <c r="G51" s="236">
         <f>G49-H29</f>
-        <v>0</v>
+        <v>-123.72000000000116</v>
       </c>
       <c r="H51" s="237"/>
       <c r="I51" s="237"/>
@@ -46004,7 +46071,7 @@
       <c r="C54" s="109"/>
       <c r="D54" s="113">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>29223</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -46274,10 +46341,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>231</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>175791</v>
       </c>
       <c r="F6" s="214" t="s">
         <v>16</v>
@@ -46310,10 +46379,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="F7" s="215"/>
       <c r="G7" s="219"/>
@@ -46362,10 +46433,12 @@
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>22</v>
+      </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16126</v>
       </c>
       <c r="F9" s="215"/>
       <c r="G9" s="226"/>
@@ -46395,7 +46468,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="229" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="H10" s="230"/>
       <c r="I10" s="230"/>
@@ -46446,10 +46519,12 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="F12" s="232" t="s">
         <v>33</v>
@@ -46480,10 +46555,12 @@
       <c r="B13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10">
+        <v>9</v>
+      </c>
       <c r="D13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2763</v>
       </c>
       <c r="F13" s="235" t="s">
         <v>36</v>
@@ -46491,7 +46568,7 @@
       <c r="G13" s="199"/>
       <c r="H13" s="190">
         <f>D29</f>
-        <v>0</v>
+        <v>205618</v>
       </c>
       <c r="I13" s="191"/>
       <c r="J13" s="192"/>
@@ -46514,10 +46591,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>15</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F14" s="193" t="s">
         <v>39</v>
@@ -46525,7 +46604,7 @@
       <c r="G14" s="194"/>
       <c r="H14" s="195">
         <f>D54</f>
-        <v>0</v>
+        <v>27680.25</v>
       </c>
       <c r="I14" s="196"/>
       <c r="J14" s="197"/>
@@ -46563,7 +46642,7 @@
       <c r="G15" s="199"/>
       <c r="H15" s="200">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>177937.75</v>
       </c>
       <c r="I15" s="201"/>
       <c r="J15" s="202"/>
@@ -46601,7 +46680,10 @@
       <c r="G16" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="160"/>
+      <c r="H16" s="160">
+        <f>180*6</f>
+        <v>1080</v>
+      </c>
       <c r="I16" s="160"/>
       <c r="J16" s="160"/>
       <c r="L16" s="6">
@@ -46723,10 +46805,12 @@
       <c r="B20" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="70" t="s">
@@ -46753,10 +46837,12 @@
       <c r="B21" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10">
+        <v>6</v>
+      </c>
       <c r="D21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>99</v>
@@ -46884,12 +46970,14 @@
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="149"/>
       <c r="B25" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>177</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
       <c r="D25" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1582</v>
       </c>
       <c r="F25" s="60" t="s">
         <v>100</v>
@@ -46903,8 +46991,7 @@
       <c r="I25" s="179"/>
       <c r="J25" s="180"/>
       <c r="L25" s="47">
-        <f>674/6</f>
-        <v>112.33333333333333</v>
+        <v>1582</v>
       </c>
       <c r="O25" t="s">
         <v>51</v>
@@ -47022,7 +47109,7 @@
       <c r="C29" s="163"/>
       <c r="D29" s="167">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>205618</v>
       </c>
       <c r="F29" s="107" t="s">
         <v>55</v>
@@ -47030,7 +47117,7 @@
       <c r="G29" s="169"/>
       <c r="H29" s="129">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>176857.75</v>
       </c>
       <c r="I29" s="130"/>
       <c r="J29" s="131"/>
@@ -47169,10 +47256,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="74"/>
+      <c r="G34" s="74">
+        <v>37</v>
+      </c>
       <c r="H34" s="151">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="I34" s="152"/>
       <c r="J34" s="153"/>
@@ -47203,10 +47292,12 @@
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>8</v>
+      </c>
       <c r="H35" s="151">
         <f t="shared" ref="H35:H39" si="2">F35*G35</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I35" s="152"/>
       <c r="J35" s="153"/>
@@ -47235,10 +47326,12 @@
       <c r="F36" s="12">
         <v>200</v>
       </c>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37">
+        <v>3</v>
+      </c>
       <c r="H36" s="151">
         <f>F36*G36</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I36" s="152"/>
       <c r="J36" s="153"/>
@@ -47263,18 +47356,22 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>237</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>26307</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="39">
+        <v>63</v>
+      </c>
       <c r="H37" s="151">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="I37" s="152"/>
       <c r="J37" s="153"/>
@@ -47297,18 +47394,22 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>2</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="39">
+        <v>16</v>
+      </c>
       <c r="H38" s="151">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I38" s="152"/>
       <c r="J38" s="153"/>
@@ -47331,18 +47432,22 @@
       <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="52">
+        <v>4</v>
+      </c>
       <c r="D39" s="31">
         <f>C39*4.5</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F39" s="12">
         <v>20</v>
       </c>
-      <c r="G39" s="37"/>
+      <c r="G39" s="37">
+        <v>2</v>
+      </c>
       <c r="H39" s="151">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I39" s="152"/>
       <c r="J39" s="153"/>
@@ -47365,10 +47470,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>4</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -47428,15 +47535,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>3</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="151"/>
+      <c r="G42" s="151">
+        <v>720</v>
+      </c>
       <c r="H42" s="152"/>
       <c r="I42" s="152"/>
       <c r="J42" s="153"/>
@@ -47487,14 +47598,22 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="146"/>
+        <v>120</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="146">
+        <v>126833</v>
+      </c>
       <c r="I44" s="146"/>
       <c r="J44" s="146"/>
       <c r="K44" s="21"/>
@@ -47537,10 +47656,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="81">
+        <v>1</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="102"/>
@@ -47574,10 +47695,12 @@
       <c r="B48" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>4</v>
+      </c>
       <c r="D48" s="12">
         <f>C48*78</f>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="59"/>
@@ -47602,17 +47725,19 @@
       <c r="B49" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="33"/>
+      <c r="C49" s="33">
+        <v>7</v>
+      </c>
       <c r="D49" s="12">
         <f>C49*42</f>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="F49" s="127" t="s">
         <v>86</v>
       </c>
       <c r="G49" s="129">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>176293</v>
       </c>
       <c r="H49" s="130"/>
       <c r="I49" s="130"/>
@@ -47636,10 +47761,12 @@
       <c r="B50" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="11">
+        <v>6</v>
+      </c>
       <c r="D50" s="12">
         <f>C50*1.5</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F50" s="128"/>
       <c r="G50" s="132"/>
@@ -47661,15 +47788,15 @@
       <c r="C51" s="10"/>
       <c r="D51" s="31"/>
       <c r="F51" s="135" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51" s="137">
+        <v>155</v>
+      </c>
+      <c r="G51" s="236">
         <f>G49-H29</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="139"/>
+        <v>-564.75</v>
+      </c>
+      <c r="H51" s="237"/>
+      <c r="I51" s="237"/>
+      <c r="J51" s="238"/>
       <c r="K51" s="21"/>
       <c r="O51" t="s">
         <v>87</v>
@@ -47691,10 +47818,10 @@
       <c r="C52" s="33"/>
       <c r="D52" s="45"/>
       <c r="F52" s="136"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="141"/>
-      <c r="J52" s="142"/>
+      <c r="G52" s="239"/>
+      <c r="H52" s="240"/>
+      <c r="I52" s="240"/>
+      <c r="J52" s="241"/>
       <c r="K52" s="21"/>
       <c r="O52" t="s">
         <v>88</v>
@@ -47736,7 +47863,7 @@
       <c r="C54" s="109"/>
       <c r="D54" s="113">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>27680.25</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -48006,10 +48133,12 @@
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>327</v>
+      </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D28" si="1">C6*L6</f>
-        <v>0</v>
+        <v>248847</v>
       </c>
       <c r="F6" s="214" t="s">
         <v>16</v>
@@ -48042,10 +48171,12 @@
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>35</v>
+      </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27335</v>
       </c>
       <c r="F7" s="215"/>
       <c r="G7" s="219"/>
@@ -48066,10 +48197,12 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>10</v>
+      </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10930</v>
       </c>
       <c r="F8" s="222" t="s">
         <v>21</v>
@@ -48118,10 +48251,12 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10">
+        <v>10</v>
+      </c>
       <c r="D10" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10320</v>
       </c>
       <c r="F10" s="214" t="s">
         <v>26</v>
@@ -48178,10 +48313,12 @@
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
       <c r="D12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4960</v>
       </c>
       <c r="F12" s="232" t="s">
         <v>33</v>
@@ -48223,7 +48360,7 @@
       <c r="G13" s="199"/>
       <c r="H13" s="190">
         <f>D29</f>
-        <v>0</v>
+        <v>317068</v>
       </c>
       <c r="I13" s="191"/>
       <c r="J13" s="192"/>
@@ -48246,10 +48383,12 @@
       <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>6</v>
+      </c>
       <c r="D14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F14" s="193" t="s">
         <v>39</v>
@@ -48257,7 +48396,7 @@
       <c r="G14" s="194"/>
       <c r="H14" s="195">
         <f>D54</f>
-        <v>0</v>
+        <v>40029</v>
       </c>
       <c r="I14" s="196"/>
       <c r="J14" s="197"/>
@@ -48295,7 +48434,7 @@
       <c r="G15" s="199"/>
       <c r="H15" s="200">
         <f>H13-H14</f>
-        <v>0</v>
+        <v>277039</v>
       </c>
       <c r="I15" s="201"/>
       <c r="J15" s="202"/>
@@ -48484,10 +48623,12 @@
       <c r="B21" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="10">
+        <v>10</v>
+      </c>
       <c r="D21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="F21" s="69" t="s">
         <v>99</v>
@@ -48658,9 +48799,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="181"/>
+      <c r="F26" s="248" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="59">
+        <v>8925</v>
+      </c>
+      <c r="H26" s="181">
+        <v>141180</v>
+      </c>
       <c r="I26" s="182"/>
       <c r="J26" s="183"/>
       <c r="L26" s="7">
@@ -48716,10 +48863,12 @@
       <c r="B28" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="10">
+        <v>10</v>
+      </c>
       <c r="D28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8110</v>
       </c>
       <c r="F28" s="104"/>
       <c r="G28" s="61"/>
@@ -48752,7 +48901,7 @@
       <c r="C29" s="163"/>
       <c r="D29" s="167">
         <f>SUM(D6:D28)</f>
-        <v>0</v>
+        <v>317068</v>
       </c>
       <c r="F29" s="107" t="s">
         <v>55</v>
@@ -48760,7 +48909,7 @@
       <c r="G29" s="169"/>
       <c r="H29" s="129">
         <f>H15-H16-H17-H18-H19-H20-H22-H23-H24+H26+H27</f>
-        <v>0</v>
+        <v>418219</v>
       </c>
       <c r="I29" s="130"/>
       <c r="J29" s="131"/>
@@ -48899,10 +49048,12 @@
       <c r="F34" s="12">
         <v>1000</v>
       </c>
-      <c r="G34" s="74"/>
+      <c r="G34" s="74">
+        <v>13</v>
+      </c>
       <c r="H34" s="151">
         <f>F34*G34</f>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="I34" s="152"/>
       <c r="J34" s="153"/>
@@ -48925,18 +49076,22 @@
       <c r="B35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="52">
+        <v>10</v>
+      </c>
       <c r="D35" s="30">
         <f>C35*84</f>
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="F35" s="58">
         <v>500</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41">
+        <v>2</v>
+      </c>
       <c r="H35" s="151">
         <f>F35*G35</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I35" s="152"/>
       <c r="J35" s="153"/>
@@ -48957,10 +49112,12 @@
       <c r="B36" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="10">
+        <v>13</v>
+      </c>
       <c r="D36" s="12">
         <f>C36*1.5</f>
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="F36" s="12">
         <v>200</v>
@@ -48993,10 +49150,12 @@
       <c r="B37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="53">
+        <v>116</v>
+      </c>
       <c r="D37" s="12">
         <f>C37*111</f>
-        <v>0</v>
+        <v>12876</v>
       </c>
       <c r="F37" s="12">
         <v>100</v>
@@ -49027,10 +49186,12 @@
       <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="54">
+        <v>226</v>
+      </c>
       <c r="D38" s="12">
         <f>C38*84</f>
-        <v>0</v>
+        <v>18984</v>
       </c>
       <c r="F38" s="30">
         <v>50</v>
@@ -49095,10 +49256,12 @@
       <c r="B40" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="63">
+        <v>5</v>
+      </c>
       <c r="D40" s="12">
         <f>C40*111</f>
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="F40" s="12">
         <v>10</v>
@@ -49126,10 +49289,12 @@
       <c r="B41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="10">
+        <v>29</v>
+      </c>
       <c r="D41" s="12">
         <f>C41*84</f>
-        <v>0</v>
+        <v>2436</v>
       </c>
       <c r="F41" s="12">
         <v>5</v>
@@ -49158,15 +49323,19 @@
       <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="11">
+        <v>10</v>
+      </c>
       <c r="D42" s="12">
         <f>C42*2.25</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="151"/>
+      <c r="G42" s="151">
+        <v>40</v>
+      </c>
       <c r="H42" s="152"/>
       <c r="I42" s="152"/>
       <c r="J42" s="153"/>
@@ -49217,14 +49386,22 @@
       <c r="B44" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
       <c r="D44" s="12">
         <f>C44*120</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="146"/>
+        <v>240</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="146">
+        <v>264377</v>
+      </c>
       <c r="I44" s="146"/>
       <c r="J44" s="146"/>
       <c r="K44" s="21"/>
@@ -49247,14 +49424,22 @@
       <c r="B45" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="33"/>
+      <c r="C45" s="33">
+        <v>48</v>
+      </c>
       <c r="D45" s="12">
         <f>C45*84</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="146"/>
+        <v>4032</v>
+      </c>
+      <c r="F45" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="146">
+        <v>139920</v>
+      </c>
       <c r="I45" s="146"/>
       <c r="J45" s="146"/>
       <c r="K45" s="21"/>
@@ -49267,10 +49452,12 @@
       <c r="B46" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="81">
+        <v>16</v>
+      </c>
       <c r="D46" s="12">
         <f>C46*1.5</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="62"/>
@@ -49342,7 +49529,7 @@
       </c>
       <c r="G49" s="129">
         <f>H34+H35+H36+H37+H38+H39+H40+H41+G42+H44+H45+H46</f>
-        <v>0</v>
+        <v>418337</v>
       </c>
       <c r="H49" s="130"/>
       <c r="I49" s="130"/>
@@ -49395,7 +49582,7 @@
       </c>
       <c r="G51" s="137">
         <f>G49-H29</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="H51" s="138"/>
       <c r="I51" s="138"/>
@@ -49466,7 +49653,7 @@
       <c r="C54" s="109"/>
       <c r="D54" s="113">
         <f>SUM(D34:D53)</f>
-        <v>0</v>
+        <v>40029</v>
       </c>
       <c r="F54" s="21"/>
       <c r="J54" s="34"/>
@@ -51236,7 +51423,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
